--- a/Docs/DaneTestowe.xlsx
+++ b/Docs/DaneTestowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MGR\git_repo\java-ee-masters-project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF56F0A2-DDA0-4482-8FFF-E67293B540D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{873C6575-B66C-43CF-AB88-8AB621DC3C78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>DODAWANIE PRZEDMIOTU</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>WYSZUKIWANIE ZAMÓWIEŃ</t>
-  </si>
-  <si>
-    <t>ANULOWANIE ZAMÓWIENIA</t>
   </si>
   <si>
     <t>Nr próby</t>
@@ -452,6 +449,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4728</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4827</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4473</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4633</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4290</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5309</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4915</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4827</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4727</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5140</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4819</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -819,6 +876,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2542</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2523</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2547</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2507</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2515</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2546</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1182,19 +1299,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>7524</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7726</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7703</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7740</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7686</c:v>
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1482,7 +1644,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Anulowanie zamówienia</a:t>
+              <a:t>Usuwanie przedmiotów</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1559,7 +1721,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5043</c:v>
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1677</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,13 +4207,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -4024,13 +4243,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -4062,13 +4281,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -4100,13 +4319,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -4436,23 +4655,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -4464,300 +4683,413 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="2">
+        <v>4526</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2609</v>
+      </c>
       <c r="D2" s="3">
-        <v>7524</v>
-      </c>
-      <c r="E2" s="3">
-        <v>5043</v>
-      </c>
-      <c r="F2" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1618</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="5">
+        <v>4728</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2515</v>
+      </c>
       <c r="D3" s="6">
-        <v>7726</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1572</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="5">
+        <v>4627</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2540</v>
+      </c>
       <c r="D4" s="6">
-        <v>7703</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1554</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="5">
+        <v>4827</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2521</v>
+      </c>
       <c r="D5" s="6">
-        <v>7740</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1546</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="5">
+        <v>4926</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2530</v>
+      </c>
       <c r="D6" s="6">
-        <v>7686</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="5">
+        <v>4473</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2536</v>
+      </c>
+      <c r="D7" s="6">
+        <v>226</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1575</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="5">
+        <v>4294</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2508</v>
+      </c>
+      <c r="D8" s="6">
+        <v>55</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1556</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="5">
+        <v>4633</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2503</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="5">
+        <v>4451</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2546</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1548</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="5">
+        <v>4290</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2527</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1550</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
+      <c r="B12" s="5">
+        <v>4745</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2542</v>
+      </c>
+      <c r="D12" s="6">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1677</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="5">
+        <v>5215</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2638</v>
+      </c>
+      <c r="D13" s="6">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1582</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="5">
+        <v>5309</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2523</v>
+      </c>
+      <c r="D14" s="6">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1568</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7"/>
+      <c r="B15" s="5">
+        <v>4915</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2522</v>
+      </c>
+      <c r="D15" s="6">
+        <v>46</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1571</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="5">
+        <v>5016</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2517</v>
+      </c>
+      <c r="D16" s="6">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
+      <c r="B17" s="5">
+        <v>4827</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2547</v>
+      </c>
+      <c r="D17" s="6">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1559</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
+      <c r="B18" s="5">
+        <v>4727</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2524</v>
+      </c>
+      <c r="D18" s="6">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1561</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="5">
+        <v>4950</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2507</v>
+      </c>
+      <c r="D19" s="6">
+        <v>45</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1555</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="B20" s="5">
+        <v>5140</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2515</v>
+      </c>
+      <c r="D20" s="6">
+        <v>33</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1557</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="8">
+        <v>4819</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2546</v>
+      </c>
+      <c r="D21" s="9">
+        <v>45</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1558</v>
+      </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="e">
+        <v>5</v>
+      </c>
+      <c r="B22">
         <f>AVERAGE(B2:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C22" t="e">
-        <f t="shared" ref="C22:F22" si="0">AVERAGE(C2:C21)</f>
-        <v>#DIV/0!</v>
+        <v>4771.8999999999996</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:E22" si="0">AVERAGE(C2:C21)</f>
+        <v>2535.8000000000002</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>7675.8</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>5043</v>
-      </c>
-      <c r="F22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1568.85</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="e">
+        <v>6</v>
+      </c>
+      <c r="B23">
         <f>_xlfn.STDEV.P(B2:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C23" t="e">
-        <f t="shared" ref="C23:F23" si="1">_xlfn.STDEV.P(C2:C21)</f>
-        <v>#DIV/0!</v>
+        <v>275.90648778163956</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:E23" si="1">_xlfn.STDEV.P(C2:C21)</f>
+        <v>32.336666494863067</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>78.139362679765952</v>
+        <v>68.190101921026638</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F23" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>29.235723011411906</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="e">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f>AVEDEV(B2:B21)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C24" t="e">
-        <f t="shared" ref="C24:E24" si="2">AVEDEV(C2:C21)</f>
-        <v>#NUM!</v>
+        <v>222.5</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:D24" si="2">AVEDEV(C2:C21)</f>
+        <v>21.760000000000037</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>60.719999999999892</v>
+        <v>43.95000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F24" t="e">
-        <f>AVEDEV(F2:F21)</f>
-        <v>#NUM!</v>
+        <f>AVEDEV(E2:E21)</f>
+        <v>18.189999999999962</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>0</v>
@@ -4769,208 +5101,185 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
+      <c r="E39" s="7"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
+      <c r="E40" s="7"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="7"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="7"/>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="e">
         <f>AVERAGE(B28:B47)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C48" t="e">
-        <f t="shared" ref="C48:F48" si="3">AVERAGE(C28:C47)</f>
+        <f t="shared" ref="C48:E48" si="3">AVERAGE(C28:C47)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D48" t="e">
@@ -4981,21 +5290,17 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49" t="e">
         <f>_xlfn.STDEV.P(B28:B47)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C49" t="e">
-        <f t="shared" ref="C49:F49" si="4">_xlfn.STDEV.P(C28:C47)</f>
+        <f t="shared" ref="C49:E49" si="4">_xlfn.STDEV.P(C28:C47)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D49" t="e">
@@ -5006,18 +5311,14 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" t="e">
         <f>AVEDEV(B28:B47)</f>
         <v>#NUM!</v>
       </c>
       <c r="C50" t="e">
-        <f t="shared" ref="C50:E50" si="5">AVEDEV(C28:C47)</f>
+        <f t="shared" ref="C50:D50" si="5">AVEDEV(C28:C47)</f>
         <v>#NUM!</v>
       </c>
       <c r="D50" t="e">
@@ -5025,11 +5326,7 @@
         <v>#NUM!</v>
       </c>
       <c r="E50" t="e">
-        <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F50" t="e">
-        <f>AVEDEV(F28:F47)</f>
+        <f>AVEDEV(E28:E47)</f>
         <v>#NUM!</v>
       </c>
     </row>

--- a/Docs/DaneTestowe.xlsx
+++ b/Docs/DaneTestowe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MGR\git_repo\java-ee-masters-project\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{873C6575-B66C-43CF-AB88-8AB621DC3C78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0A35DF00-2AD4-4FF1-9F48-7C205716E215}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -305,11 +305,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -321,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -555,6 +567,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3867</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3654</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3783</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3683</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3883</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3658</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3656</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3655</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3663</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3667</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3660</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -982,6 +1054,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2456</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2454</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2453</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2455</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2451</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1404,6 +1536,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1826,6 +2018,66 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1534</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4657,8 +4909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5108,226 +5360,400 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
+      <c r="B28" s="2">
+        <v>3666</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2516</v>
+      </c>
+      <c r="D28" s="3">
+        <v>154</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1594</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
+      <c r="B29" s="5">
+        <v>3766</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2457</v>
+      </c>
+      <c r="D29" s="6">
+        <v>129</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1537</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
+      <c r="B30" s="5">
+        <v>3867</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2459</v>
+      </c>
+      <c r="D30" s="6">
+        <v>138</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1533</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="7"/>
+      <c r="B31" s="5">
+        <v>3656</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2459</v>
+      </c>
+      <c r="D31" s="6">
+        <v>162</v>
+      </c>
+      <c r="E31" s="7">
+        <v>1532</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7"/>
+      <c r="B32" s="5">
+        <v>3651</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2453</v>
+      </c>
+      <c r="D32" s="6">
+        <v>151</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1533</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7"/>
+      <c r="B33" s="5">
+        <v>3654</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2466</v>
+      </c>
+      <c r="D33" s="6">
+        <v>206</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1553</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="11">
+        <v>3656</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2453</v>
+      </c>
+      <c r="D34" s="6">
+        <v>192</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1531</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+      <c r="B35" s="11">
+        <v>3655</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2454</v>
+      </c>
+      <c r="D35" s="6">
+        <v>190</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1531</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7"/>
+      <c r="B36" s="11">
+        <v>3655</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2455</v>
+      </c>
+      <c r="D36" s="6">
+        <v>231</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1535</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7"/>
+      <c r="B37" s="11">
+        <v>3660</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2456</v>
+      </c>
+      <c r="D37" s="6">
+        <v>197</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1529</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="7"/>
+      <c r="B38" s="11">
+        <v>3783</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2526</v>
+      </c>
+      <c r="D38" s="6">
+        <v>187</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1595</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="7"/>
+      <c r="B39" s="11">
+        <v>3683</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2454</v>
+      </c>
+      <c r="D39" s="6">
+        <v>198</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1534</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="11">
+        <v>3883</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2453</v>
+      </c>
+      <c r="D40" s="6">
+        <v>202</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1534</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7"/>
+      <c r="B41" s="11">
+        <v>3656</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2455</v>
+      </c>
+      <c r="D41" s="6">
+        <v>217</v>
+      </c>
+      <c r="E41" s="7">
+        <v>1534</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="7"/>
+      <c r="B42" s="11">
+        <v>3658</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2452</v>
+      </c>
+      <c r="D42" s="6">
+        <v>231</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1532</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="7"/>
+      <c r="B43" s="11">
+        <v>3656</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2455</v>
+      </c>
+      <c r="D43" s="6">
+        <v>285</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1533</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
+      <c r="B44" s="11">
+        <v>3655</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2453</v>
+      </c>
+      <c r="D44" s="6">
+        <v>299</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1530</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="7"/>
+      <c r="B45" s="11">
+        <v>3663</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2455</v>
+      </c>
+      <c r="D45" s="6">
+        <v>330</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1531</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="7"/>
+      <c r="B46" s="11">
+        <v>3667</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2452</v>
+      </c>
+      <c r="D46" s="6">
+        <v>335</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1530</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>20</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
+      <c r="B47" s="11">
+        <v>3660</v>
+      </c>
+      <c r="C47" s="9">
+        <v>2451</v>
+      </c>
+      <c r="D47" s="9">
+        <v>292</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1534</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
-      <c r="B48" t="e">
+      <c r="B48">
         <f>AVERAGE(B28:B47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C48" t="e">
+        <v>3692.5</v>
+      </c>
+      <c r="C48">
         <f t="shared" ref="C48:E48" si="3">AVERAGE(C28:C47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" t="e">
+        <v>2461.6999999999998</v>
+      </c>
+      <c r="D48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E48" t="e">
+        <v>216.3</v>
+      </c>
+      <c r="E48">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1539.75</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" t="e">
+      <c r="B49">
         <f>_xlfn.STDEV.P(B28:B47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C49" t="e">
+        <v>70.249911031972132</v>
+      </c>
+      <c r="C49">
         <f t="shared" ref="C49:E49" si="4">_xlfn.STDEV.P(C28:C47)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" t="e">
+        <v>20.092535927552799</v>
+      </c>
+      <c r="D49">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" t="e">
+        <v>60.309286183804232</v>
+      </c>
+      <c r="E49">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>18.875579461303964</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="e">
+      <c r="B50">
         <f>AVEDEV(B28:B47)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C50" t="e">
+        <v>52.9</v>
+      </c>
+      <c r="C50">
         <f t="shared" ref="C50:D50" si="5">AVEDEV(C28:C47)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D50" t="e">
+        <v>12.289999999999873</v>
+      </c>
+      <c r="D50">
         <f t="shared" si="5"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E50" t="e">
+        <v>48.960000000000015</v>
+      </c>
+      <c r="E50">
         <f>AVEDEV(E28:E47)</f>
-        <v>#NUM!</v>
+        <v>12.275</v>
       </c>
     </row>
   </sheetData>
